--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G417"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10611,16 +10611,16 @@
         </is>
       </c>
       <c r="C407" t="n">
-        <v>4432101450000</v>
+        <v>4437056510000</v>
       </c>
       <c r="D407" t="n">
-        <v>4432101450000</v>
+        <v>4437056510000</v>
       </c>
       <c r="E407" t="n">
-        <v>4432101450000</v>
+        <v>4437056510000</v>
       </c>
       <c r="F407" t="n">
-        <v>4432101450000</v>
+        <v>4437056510000</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
@@ -10873,6 +10873,56 @@
         <v>5039103000000</v>
       </c>
       <c r="G417" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>5110611000000</v>
+      </c>
+      <c r="D418" t="n">
+        <v>5110611000000</v>
+      </c>
+      <c r="E418" t="n">
+        <v>5110611000000</v>
+      </c>
+      <c r="F418" t="n">
+        <v>5110611000000</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>5240987000000</v>
+      </c>
+      <c r="D419" t="n">
+        <v>5240987000000</v>
+      </c>
+      <c r="E419" t="n">
+        <v>5240987000000</v>
+      </c>
+      <c r="F419" t="n">
+        <v>5240987000000</v>
+      </c>
+      <c r="G419" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G419"/>
+  <dimension ref="A1:G420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10911,18 +10911,43 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5240987000000</v>
+        <v>5245202000000</v>
       </c>
       <c r="D419" t="n">
-        <v>5240987000000</v>
+        <v>5245202000000</v>
       </c>
       <c r="E419" t="n">
-        <v>5240987000000</v>
+        <v>5245202000000</v>
       </c>
       <c r="F419" t="n">
-        <v>5240987000000</v>
+        <v>5245202000000</v>
       </c>
       <c r="G419" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>5305802000000</v>
+      </c>
+      <c r="D420" t="n">
+        <v>5305802000000</v>
+      </c>
+      <c r="E420" t="n">
+        <v>5305802000000</v>
+      </c>
+      <c r="F420" t="n">
+        <v>5305802000000</v>
+      </c>
+      <c r="G420" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>32599.41666666667</v>
+        <v>32599.45833333333</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>32782.41666666666</v>
+        <v>32782.45833333334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>33329.41666666666</v>
+        <v>33329.45833333334</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>33664.41666666666</v>
+        <v>33664.45833333334</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>33695.41666666666</v>
+        <v>33695.45833333334</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34060.41666666666</v>
+        <v>34060.45833333334</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34425.41666666666</v>
+        <v>34425.45833333334</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>34790.41666666666</v>
+        <v>34790.45833333334</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>34973.41666666666</v>
+        <v>34973.45833333334</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>35156.41666666666</v>
+        <v>35156.45833333334</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>35521.41666666666</v>
+        <v>35521.45833333334</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>35886.41666666666</v>
+        <v>35886.45833333334</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>36251.41666666666</v>
+        <v>36251.45833333334</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>36617.41666666666</v>
+        <v>36617.45833333334</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>36770.45833333334</v>
+        <v>36770.41666666666</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>37347.41666666666</v>
+        <v>37347.45833333334</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>37712.41666666666</v>
+        <v>37712.45833333334</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38078.41666666666</v>
+        <v>38078.45833333334</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>38443.41666666666</v>
+        <v>38443.45833333334</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>38991.41666666666</v>
+        <v>38991.45833333334</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -10836,16 +10836,16 @@
         </is>
       </c>
       <c r="C416" t="n">
-        <v>5026065000000</v>
+        <v>5034002000000</v>
       </c>
       <c r="D416" t="n">
-        <v>5026065000000</v>
+        <v>5034002000000</v>
       </c>
       <c r="E416" t="n">
-        <v>5026065000000</v>
+        <v>5034002000000</v>
       </c>
       <c r="F416" t="n">
-        <v>5026065000000</v>
+        <v>5034002000000</v>
       </c>
       <c r="G416" t="n">
         <v>0</v>
@@ -10861,16 +10861,16 @@
         </is>
       </c>
       <c r="C417" t="n">
-        <v>5039103000000</v>
+        <v>5085347000000</v>
       </c>
       <c r="D417" t="n">
-        <v>5039103000000</v>
+        <v>5085347000000</v>
       </c>
       <c r="E417" t="n">
-        <v>5039103000000</v>
+        <v>5085347000000</v>
       </c>
       <c r="F417" t="n">
-        <v>5039103000000</v>
+        <v>5085347000000</v>
       </c>
       <c r="G417" t="n">
         <v>0</v>
@@ -10886,16 +10886,16 @@
         </is>
       </c>
       <c r="C418" t="n">
-        <v>5110611000000</v>
+        <v>5217671000000</v>
       </c>
       <c r="D418" t="n">
-        <v>5110611000000</v>
+        <v>5217671000000</v>
       </c>
       <c r="E418" t="n">
-        <v>5110611000000</v>
+        <v>5217671000000</v>
       </c>
       <c r="F418" t="n">
-        <v>5110611000000</v>
+        <v>5217671000000</v>
       </c>
       <c r="G418" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5245202000000</v>
+        <v>5245201000000</v>
       </c>
       <c r="D419" t="n">
-        <v>5245202000000</v>
+        <v>5245201000000</v>
       </c>
       <c r="E419" t="n">
-        <v>5245202000000</v>
+        <v>5245201000000</v>
       </c>
       <c r="F419" t="n">
-        <v>5245202000000</v>
+        <v>5245201000000</v>
       </c>
       <c r="G419" t="n">
         <v>0</v>
@@ -10936,18 +10936,43 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>5305802000000</v>
+        <v>5323624000000</v>
       </c>
       <c r="D420" t="n">
-        <v>5305802000000</v>
+        <v>5323624000000</v>
       </c>
       <c r="E420" t="n">
-        <v>5305802000000</v>
+        <v>5323624000000</v>
       </c>
       <c r="F420" t="n">
-        <v>5305802000000</v>
+        <v>5323624000000</v>
       </c>
       <c r="G420" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>5416543000000</v>
+      </c>
+      <c r="D421" t="n">
+        <v>5416543000000</v>
+      </c>
+      <c r="E421" t="n">
+        <v>5416543000000</v>
+      </c>
+      <c r="F421" t="n">
+        <v>5416543000000</v>
+      </c>
+      <c r="G421" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
@@ -703,7 +703,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>32599.45833333333</v>
+        <v>32599.41666666667</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>32782.45833333334</v>
+        <v>32782.41666666666</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>33329.45833333334</v>
+        <v>33329.41666666666</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>33664.45833333334</v>
+        <v>33664.41666666666</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>33695.45833333334</v>
+        <v>33695.41666666666</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>34060.45833333334</v>
+        <v>34060.41666666666</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>34425.45833333334</v>
+        <v>34425.41666666666</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>34790.45833333334</v>
+        <v>34790.41666666666</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>34973.45833333334</v>
+        <v>34973.41666666666</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -2803,7 +2803,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>35156.45833333334</v>
+        <v>35156.41666666666</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>35521.45833333334</v>
+        <v>35521.41666666666</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>35886.45833333334</v>
+        <v>35886.41666666666</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>36251.45833333334</v>
+        <v>36251.41666666666</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>36617.45833333334</v>
+        <v>36617.41666666666</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>36770.41666666666</v>
+        <v>36770.45833333334</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -4603,7 +4603,7 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>37347.45833333334</v>
+        <v>37347.41666666666</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>37712.45833333334</v>
+        <v>37712.41666666666</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>38078.45833333334</v>
+        <v>38078.41666666666</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>38443.45833333334</v>
+        <v>38443.41666666666</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>38991.45833333334</v>
+        <v>38991.41666666666</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Brazil_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10911,16 +10911,16 @@
         </is>
       </c>
       <c r="C419" t="n">
-        <v>5245201000000</v>
+        <v>5245350000000</v>
       </c>
       <c r="D419" t="n">
-        <v>5245201000000</v>
+        <v>5245350000000</v>
       </c>
       <c r="E419" t="n">
-        <v>5245201000000</v>
+        <v>5245350000000</v>
       </c>
       <c r="F419" t="n">
-        <v>5245201000000</v>
+        <v>5245350000000</v>
       </c>
       <c r="G419" t="n">
         <v>0</v>
@@ -10936,16 +10936,16 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>5323624000000</v>
+        <v>5322265000000</v>
       </c>
       <c r="D420" t="n">
-        <v>5323624000000</v>
+        <v>5322265000000</v>
       </c>
       <c r="E420" t="n">
-        <v>5323624000000</v>
+        <v>5322265000000</v>
       </c>
       <c r="F420" t="n">
-        <v>5323624000000</v>
+        <v>5322265000000</v>
       </c>
       <c r="G420" t="n">
         <v>0</v>
@@ -10961,18 +10961,93 @@
         </is>
       </c>
       <c r="C421" t="n">
-        <v>5416543000000</v>
+        <v>5421638000000</v>
       </c>
       <c r="D421" t="n">
-        <v>5416543000000</v>
+        <v>5421638000000</v>
       </c>
       <c r="E421" t="n">
-        <v>5416543000000</v>
+        <v>5421638000000</v>
       </c>
       <c r="F421" t="n">
-        <v>5416543000000</v>
+        <v>5421638000000</v>
       </c>
       <c r="G421" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>5501072000000</v>
+      </c>
+      <c r="D422" t="n">
+        <v>5501072000000</v>
+      </c>
+      <c r="E422" t="n">
+        <v>5501072000000</v>
+      </c>
+      <c r="F422" t="n">
+        <v>5501072000000</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>5591097000000</v>
+      </c>
+      <c r="D423" t="n">
+        <v>5591097000000</v>
+      </c>
+      <c r="E423" t="n">
+        <v>5591097000000</v>
+      </c>
+      <c r="F423" t="n">
+        <v>5591097000000</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>ECONOMICS:BRM2</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>5656835000000</v>
+      </c>
+      <c r="D424" t="n">
+        <v>5656835000000</v>
+      </c>
+      <c r="E424" t="n">
+        <v>5656835000000</v>
+      </c>
+      <c r="F424" t="n">
+        <v>5656835000000</v>
+      </c>
+      <c r="G424" t="n">
         <v>0</v>
       </c>
     </row>
